--- a/Assets/Excels/Games/DCG/DCGAnswre.xlsx
+++ b/Assets/Excels/Games/DCG/DCGAnswre.xlsx
@@ -373,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -403,20 +403,174 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>